--- a/ArletteSchedules/summer 2019.xlsx
+++ b/ArletteSchedules/summer 2019.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
